--- a/run/output/ieduplicates/foo2.xlsx
+++ b/run/output/ieduplicates/foo2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="15">
   <si>
     <t>make</t>
   </si>
@@ -36,46 +36,19 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>newid</t>
   </si>
   <si>
     <t>initials</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>uuid</t>
@@ -90,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -129,8 +102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -147,25 +123,25 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -182,23 +158,23 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -212,26 +188,26 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
